--- a/SAFV/Helper/TestData/login data.xlsx
+++ b/SAFV/Helper/TestData/login data.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28122"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5F09A6CD-4F21-4AF5-A938-2A814F118C64}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="11_0B1D56BE9CDCCE836B02CE7A5FB0D4A9BBFD1C62" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CC97769C-5A59-4407-B0B8-B48735276F35}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,18 +31,39 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>password</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+  <si>
+    <t>Username</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
+  <si>
+    <t>Username2</t>
+  </si>
+  <si>
+    <t>Password2</t>
+  </si>
+  <si>
+    <t>JudgeUsername</t>
+  </si>
+  <si>
+    <t>JudgePassword</t>
+  </si>
+  <si>
+    <t>mazhar.karim@brainstation-23.com</t>
+  </si>
+  <si>
+    <t>mazhar.karim@brainstation-23.coM</t>
   </si>
   <si>
     <t>testuser1bs23@gmail.com</t>
   </si>
   <si>
     <t>bs23@Test123</t>
+  </si>
+  <si>
+    <t>testuser2bs23@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -425,33 +446,68 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
+        <v>6</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1" xr:uid="{68406190-8931-4BD6-AB6E-AA55721D3ED3}"/>
+    <hyperlink ref="B2" r:id="rId2" xr:uid="{9C3A76B6-E50D-47D5-9A0C-DDD63324E29F}"/>
+    <hyperlink ref="C2" r:id="rId3" xr:uid="{37792229-B929-48BA-B9E2-BA8472E4A9FA}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{087B921F-847F-4805-A218-2E65B31A65E8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
